--- a/delta_overview.xlsx
+++ b/delta_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Forschung\HTMT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F25819-18E9-412C-9B94-0A956897EB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452B14C-41B3-42D3-87AF-486AF7FA2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{80CE157D-D49E-48FE-8F57-60257785BC04}"/>
   </bookViews>
@@ -81,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598172F5-0EA4-4A2A-9CE8-024AE1EF8D02}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,82 +830,82 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0.3</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.4</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>50</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>6.51428571428571E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0.3</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.4</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>5.3774560496380602E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0.3</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.4</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>250</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>5.1051051051051101E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0.3</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.4</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>1000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -1223,82 +1230,82 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0.3</v>
-      </c>
-      <c r="C38">
-        <v>0.7</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="B38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>8.3242059145673605E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0.3</v>
-      </c>
-      <c r="C39">
-        <v>0.7</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="B39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>100</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>6.1139896373057001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0.3</v>
-      </c>
-      <c r="C40">
-        <v>0.7</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="B40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>250</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>8.2082082082082106E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0.3</v>
-      </c>
-      <c r="C41">
-        <v>0.7</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="B41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>1000</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -1623,82 +1630,82 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0.3</v>
-      </c>
-      <c r="C58">
-        <v>0.8</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="B58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
         <v>50</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>5.75757575757576E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0.3</v>
-      </c>
-      <c r="C59">
-        <v>0.8</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="B59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
         <v>100</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0.3</v>
-      </c>
-      <c r="C60">
-        <v>0.8</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="B60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
         <v>250</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0.3</v>
-      </c>
-      <c r="C61">
-        <v>0.8</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="B61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
         <v>1000</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
@@ -2023,82 +2030,82 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>0.3</v>
-      </c>
-      <c r="C78">
-        <v>0.9</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
+      <c r="B78" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
         <v>50</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>0.3</v>
-      </c>
-      <c r="C79">
-        <v>0.9</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
+      <c r="B79" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
         <v>100</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>0.3</v>
-      </c>
-      <c r="C80">
-        <v>0.9</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
+      <c r="B80" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
         <v>250</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>0.3</v>
-      </c>
-      <c r="C81">
-        <v>0.9</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
+      <c r="B81" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
         <v>1000</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
